--- a/Lab1/SMT.xlsx
+++ b/Lab1/SMT.xlsx
@@ -452,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.006914200028404593</v>
       </c>
       <c r="D2" t="n">
-        <v>15625000</v>
+        <v>0.005598100018687546</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.006739800039213151</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.005049699975643307</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.008993900031782687</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.00626409996766597</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01052899996284395</v>
       </c>
       <c r="D5" t="n">
-        <v>15625000</v>
+        <v>0.006153700000140816</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>15625000</v>
+        <v>0.01084509998327121</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.00967050000326708</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>15625000</v>
+        <v>0.01412840001285076</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.008685600012540817</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>15625000</v>
+        <v>0.01473900000564754</v>
       </c>
       <c r="D8" t="n">
-        <v>15625000</v>
+        <v>0.01196259999414906</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0178404999896884</v>
       </c>
       <c r="D9" t="n">
-        <v>15625000</v>
+        <v>0.0145075999898836</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>15625000</v>
+        <v>0.0197901000501588</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0166173999896273</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>31250000</v>
+        <v>0.02311810001265258</v>
       </c>
       <c r="D11" t="n">
-        <v>15625000</v>
+        <v>0.03803579998202622</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.02889780001714826</v>
       </c>
       <c r="D12" t="n">
-        <v>15625000</v>
+        <v>0.08212779997847974</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>15625000</v>
+        <v>0.03100710001308471</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.04247679997934029</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>31250000</v>
+        <v>0.03509630000917241</v>
       </c>
       <c r="D14" t="n">
-        <v>15625000</v>
+        <v>0.06845869997050613</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>31250000</v>
+        <v>0.03635700000450015</v>
       </c>
       <c r="D15" t="n">
-        <v>46875000</v>
+        <v>0.1223682999843732</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>15625000</v>
+        <v>0.04038540000328794</v>
       </c>
       <c r="D16" t="n">
-        <v>15625000</v>
+        <v>0.1299427000340074</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>31250000</v>
+        <v>0.04045890003908426</v>
       </c>
       <c r="D17" t="n">
-        <v>15625000</v>
+        <v>0.04814600001554936</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.05765720002818853</v>
       </c>
       <c r="D18" t="n">
-        <v>78125000</v>
+        <v>0.1612021999899298</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>62500000</v>
+        <v>0.05385259998729452</v>
       </c>
       <c r="D19" t="n">
-        <v>31250000</v>
+        <v>0.1420088000013493</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>62500000</v>
+        <v>0.08672150003258139</v>
       </c>
       <c r="D20" t="n">
-        <v>93750000</v>
+        <v>0.1782074999646284</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>15625000</v>
+        <v>0.06093669997062534</v>
       </c>
       <c r="D21" t="n">
-        <v>31250000</v>
+        <v>0.1822304000379518</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>46875000</v>
+        <v>0.06387199996970594</v>
       </c>
       <c r="D22" t="n">
-        <v>62500000</v>
+        <v>0.2650258999783546</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>78125000</v>
+        <v>0.07306570000946522</v>
       </c>
       <c r="D23" t="n">
-        <v>109375000</v>
+        <v>0.209501100005582</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.07836350001161918</v>
       </c>
       <c r="D24" t="n">
-        <v>109375000</v>
+        <v>0.2776463000336662</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>46875000</v>
+        <v>0.08064480003667995</v>
       </c>
       <c r="D25" t="n">
-        <v>312500000</v>
+        <v>0.4660349999903701</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>62500000</v>
+        <v>0.08423630002653226</v>
       </c>
       <c r="D26" t="n">
-        <v>187500000</v>
+        <v>0.2505804999964312</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>78125000</v>
+        <v>0.08768070000223815</v>
       </c>
       <c r="D27" t="n">
-        <v>484375000</v>
+        <v>0.7243748999899253</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>78125000</v>
+        <v>0.09144889999879524</v>
       </c>
       <c r="D28" t="n">
-        <v>421875000</v>
+        <v>0.5647468999959528</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>125000000</v>
+        <v>0.1170931000378914</v>
       </c>
       <c r="D29" t="n">
-        <v>1000000000</v>
+        <v>1.003718699968886</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>156250000</v>
+        <v>0.1152383000007831</v>
       </c>
       <c r="D30" t="n">
-        <v>1343750000</v>
+        <v>1.553248799988069</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>62500000</v>
+        <v>0.1243373999604955</v>
       </c>
       <c r="D31" t="n">
-        <v>953125000</v>
+        <v>1.314377800037619</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>109375000</v>
+        <v>0.1335534999961965</v>
       </c>
       <c r="D32" t="n">
-        <v>1062500000</v>
+        <v>1.545875500014517</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>78125000</v>
+        <v>0.1427722999942489</v>
       </c>
       <c r="D33" t="n">
-        <v>671875000</v>
+        <v>1.210258800012525</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>125000000</v>
+        <v>0.1403111999970861</v>
       </c>
       <c r="D34" t="n">
-        <v>1281250000</v>
+        <v>2.577428799995687</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>93750000</v>
+        <v>0.1391394000384025</v>
       </c>
       <c r="D35" t="n">
-        <v>2343750000</v>
+        <v>2.816935100010596</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>93750000</v>
+        <v>0.1626530000357889</v>
       </c>
       <c r="D36" t="n">
-        <v>2046875000</v>
+        <v>2.299263599968981</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>125000000</v>
+        <v>0.1588694999809377</v>
       </c>
       <c r="D37" t="n">
-        <v>2296875000</v>
+        <v>2.690882500028238</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>171875000</v>
+        <v>0.1763110000174493</v>
       </c>
       <c r="D38" t="n">
-        <v>2406250000</v>
+        <v>2.905477499996778</v>
       </c>
     </row>
   </sheetData>
